--- a/Inputs/JRC_EU_TIMES/ProRes1/TIMES_EV_Capacities.xlsx
+++ b/Inputs/JRC_EU_TIMES/ProRes1/TIMES_EV_Capacities.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Github\DispaSET-SideTools\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Downloads\MASTER\TFE\DispaSET-SideTools\Inputs\JRC_EU_TIMES\ProRes1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E400A7DB-AB6B-4150-860C-0F9C9893D1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91496C63-3B9E-479A-BCF4-0E0E83612880}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{C2BF38A4-E098-4FE1-822E-30B11FE498F9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5DCDA7C8-15D2-4565-A533-671FC4372CCE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Region</t>
   </si>
@@ -90,6 +90,9 @@
     <t>IE</t>
   </si>
   <si>
+    <t>IS</t>
+  </si>
+  <si>
     <t>IT</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
     <t>LV</t>
   </si>
   <si>
+    <t>MT</t>
+  </si>
+  <si>
     <t>NL</t>
   </si>
   <si>
@@ -127,9 +133,6 @@
   </si>
   <si>
     <t>UK</t>
-  </si>
-  <si>
-    <t>MT</t>
   </si>
 </sst>
 </file>
@@ -185,11 +188,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -212,7 +215,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -507,362 +510,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0300A67-53D1-4814-B767-9FB026990888}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0392EFC-4AF1-410C-9813-CEFEA9BD3F84}">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>74.304000000000002</v>
+        <v>37.152000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>136.72399999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68.361999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>81.727999999999994</v>
+        <v>40.863999999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>144.642</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72.320999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>17.218</v>
+        <v>8.609</v>
       </c>
       <c r="C4" s="1">
-        <v>39.862000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19.931000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>35.68</v>
+        <v>17.84</v>
       </c>
       <c r="C5" s="1">
-        <v>77.341999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38.670999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>8.36</v>
+        <v>4.18</v>
       </c>
       <c r="C6" s="1">
-        <v>15.468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>43.63</v>
+        <v>21.815000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>90.73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45.365000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>390.584</v>
+        <v>195.292</v>
       </c>
       <c r="C8" s="1">
-        <v>694.00599999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>347.00299999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>45.281999999999996</v>
+        <v>22.640999999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>68.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>5.8239999999999998</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.9220000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9610000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>46.362000000000002</v>
+        <v>23.181000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>74.343999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37.171999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>174.42400000000001</v>
+        <v>87.212000000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>393.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>32.654000000000003</v>
+        <v>16.327000000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>413.69400000000002</v>
+        <v>206.84700000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>794.81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>397.40499999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>18.891999999999999</v>
+        <v>9.4459999999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>36.015999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18.007999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>34.235999999999997</v>
+        <v>17.117999999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>49.107999999999997</v>
+        <v>24.553999999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>103.502</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51.750999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>317.60000000000002</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="C18" s="1">
-        <v>622.72400000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0710000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>9.0500000000000007</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>14.378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>311.36200000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>25.326000000000001</v>
+        <v>4.5250000000000004</v>
       </c>
       <c r="C20" s="1">
-        <v>48.31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.1890000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>7.81</v>
+        <v>12.663</v>
       </c>
       <c r="C21" s="1">
-        <v>12.862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24.155000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.9049999999999998</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6.431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>59.866999999999997</v>
+      </c>
+      <c r="C24" s="1">
+        <v>90.742000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>16.082000000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>30.376999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>50.274000000000001</v>
+      </c>
+      <c r="C26" s="1">
+        <v>141.15100000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>33.353000000000002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>57.343000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>17.582999999999998</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43.07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <v>29.794</v>
+      </c>
+      <c r="C29" s="1">
+        <v>56.167999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9.0519999999999996</v>
+      </c>
+      <c r="C30" s="1">
+        <v>14.875999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1">
-        <v>1.4379999999999999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <v>119.73399999999999</v>
-      </c>
-      <c r="C23" s="1">
-        <v>181.48400000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1">
-        <v>32.164000000000001</v>
-      </c>
-      <c r="C24" s="1">
-        <v>60.753999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
-        <v>100.548</v>
-      </c>
-      <c r="C25" s="1">
-        <v>282.30200000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>66.706000000000003</v>
-      </c>
-      <c r="C26" s="1">
-        <v>114.68600000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>35.165999999999997</v>
-      </c>
-      <c r="C27" s="1">
-        <v>86.14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1">
-        <v>59.588000000000001</v>
-      </c>
-      <c r="C28" s="1">
-        <v>112.336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1">
-        <v>18.103999999999999</v>
-      </c>
-      <c r="C29" s="1">
-        <v>29.751999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1">
-        <v>11.965999999999999</v>
-      </c>
-      <c r="C30" s="1">
-        <v>31.606000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="B31" s="1">
-        <v>285.23599999999999</v>
+        <v>5.9829999999999997</v>
       </c>
       <c r="C31" s="1">
-        <v>616.75400000000002</v>
+        <v>15.803000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1">
+        <v>142.61799999999999</v>
+      </c>
+      <c r="C32" s="1">
+        <v>308.37700000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Inputs/JRC_EU_TIMES/ProRes1/TIMES_EV_Capacities.xlsx
+++ b/Inputs/JRC_EU_TIMES/ProRes1/TIMES_EV_Capacities.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eva\Downloads\MASTER\TFE\DispaSET-SideTools\Inputs\JRC_EU_TIMES\ProRes1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10459618_polimi_it/Documents/Università/Tesi (OneDrive)/Final Simulations Dispa-SET/JRC-EU-TIMES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91496C63-3B9E-479A-BCF4-0E0E83612880}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{743F9B35-259B-4546-988C-E27E41A3DAEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5DCDA7C8-15D2-4565-A533-671FC4372CCE}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{E1C7977E-B24B-435F-A3D6-35CFC93EE697}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Region</t>
   </si>
   <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>2050</t>
+    <t>GW</t>
   </si>
   <si>
     <t>AT</t>
@@ -139,9 +138,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,14 +181,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -215,7 +211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -510,370 +506,550 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0392EFC-4AF1-410C-9813-CEFEA9BD3F84}">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C9A505-95CE-4782-BCB6-87E236858333}">
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="1">
+        <v>11.978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>37.152000000000001</v>
-      </c>
-      <c r="C2" s="1">
-        <v>68.361999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="1">
+        <v>14.494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>40.863999999999997</v>
-      </c>
-      <c r="C3" s="1">
-        <v>72.320999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="1">
+        <v>6.9089999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>8.609</v>
-      </c>
-      <c r="C4" s="1">
-        <v>19.931000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="1">
+        <v>9.8219999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>17.84</v>
-      </c>
-      <c r="C5" s="1">
-        <v>38.670999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="1">
+        <v>1.5680000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
+        <v>14.632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>95.009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.7430000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11.573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>64.739999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6.4619999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>79.501000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4.2050000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9.5359999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.8470000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>89.613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
         <v>4.18</v>
       </c>
-      <c r="C6" s="1">
-        <v>7.734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>21.815000000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45.365000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>195.292</v>
-      </c>
-      <c r="C8" s="1">
-        <v>347.00299999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>22.640999999999998</v>
-      </c>
-      <c r="C9" s="1">
-        <v>34.36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2.9119999999999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4.9610000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>23.181000000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>37.171999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>87.212000000000003</v>
-      </c>
-      <c r="C12" s="1">
-        <v>196.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>16.327000000000002</v>
-      </c>
-      <c r="C13" s="1">
-        <v>25.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>206.84700000000001</v>
-      </c>
-      <c r="C14" s="1">
-        <v>397.40499999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>9.4459999999999997</v>
-      </c>
-      <c r="C15" s="1">
-        <v>18.007999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
-        <v>17.117999999999999</v>
-      </c>
-      <c r="C16" s="1">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1">
-        <v>24.553999999999998</v>
-      </c>
-      <c r="C17" s="1">
-        <v>51.750999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.0710000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1">
-        <v>158.80000000000001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>311.36200000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1">
-        <v>4.5250000000000004</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7.1890000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="B21" s="1">
+        <v>1.329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1">
-        <v>12.663</v>
-      </c>
-      <c r="C21" s="1">
-        <v>24.155000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="1">
+        <v>1.278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1">
-        <v>3.9049999999999998</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6.431</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="1">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.69499999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="1">
+        <v>18.914000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
-        <v>59.866999999999997</v>
-      </c>
-      <c r="C24" s="1">
-        <v>90.742000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="B25" s="1">
+        <v>5.5890000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1">
-        <v>16.082000000000001</v>
-      </c>
-      <c r="C25" s="1">
-        <v>30.376999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="B26" s="1">
+        <v>62.674999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1">
-        <v>50.274000000000001</v>
-      </c>
-      <c r="C26" s="1">
-        <v>141.15100000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="1">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1">
-        <v>33.353000000000002</v>
-      </c>
-      <c r="C27" s="1">
-        <v>57.343000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="1">
+        <v>20.064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1">
-        <v>17.582999999999998</v>
-      </c>
-      <c r="C28" s="1">
-        <v>43.07</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="1">
+        <v>11.223000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="1">
-        <v>29.794</v>
-      </c>
-      <c r="C29" s="1">
-        <v>56.167999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="1">
+        <v>3.0579999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="1">
-        <v>9.0519999999999996</v>
-      </c>
-      <c r="C30" s="1">
-        <v>14.875999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="1">
+        <v>6.0519999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="1">
-        <v>5.9829999999999997</v>
-      </c>
-      <c r="C31" s="1">
-        <v>15.803000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="B32" s="1">
-        <v>142.61799999999999</v>
-      </c>
-      <c r="C32" s="1">
-        <v>308.37700000000001</v>
+        <v>74.87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BA58F2CACE833A4EAC3C2718D7553EBC" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="bb63102ff0d9eda75d0b4de88b67103d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7880897e-52c6-4ffd-85c8-5c6950347fc0" xmlns:ns4="8c824e80-41b8-4a07-a4d9-9d9814734933" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d343f4382375feb5aaefc2a566ff9801" ns3:_="" ns4:_="">
+    <xsd:import namespace="7880897e-52c6-4ffd-85c8-5c6950347fc0"/>
+    <xsd:import namespace="8c824e80-41b8-4a07-a4d9-9d9814734933"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7880897e-52c6-4ffd-85c8-5c6950347fc0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithDetails" ma:index="8" nillable="true" ma:displayName="Condiviso con dettagli" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="9" nillable="true" ma:displayName="Condiviso con" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Hash suggerimento condivisione" ma:description="" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8c824e80-41b8-4a07-a4d9-9d9814734933" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529ACF30-2475-431C-807C-AE687EC4A6B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7880897e-52c6-4ffd-85c8-5c6950347fc0"/>
+    <ds:schemaRef ds:uri="8c824e80-41b8-4a07-a4d9-9d9814734933"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB9A77FF-C7CF-40B8-9A5E-8B365358883C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A937B123-0942-458B-972B-6AD4334E6B49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>